--- a/заказы/статистика филиалы/2023/10,23/12,10,23 ЗПФ/дв 13,10,23 бррсч зпф.xlsx
+++ b/заказы/статистика филиалы/2023/10,23/12,10,23 ЗПФ/дв 13,10,23 бррсч зпф.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uaer4\Desktop\12,10,23 филиалы ЗПФ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\ПОКОМ\pokom_data\заказы\статистика филиалы\2023\10,23\12,10,23 ЗПФ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DC87026-FDFE-41B2-A752-92A3628D0436}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E752E4A-3391-47B7-BB9C-E1D694DFBD23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -229,10 +229,14 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="8"/>
@@ -362,7 +366,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -425,6 +429,7 @@
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2500,11 +2505,11 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:AA38"/>
+  <dimension ref="A1:AB38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AC13" sqref="AC13"/>
+      <selection pane="bottomLeft" activeCell="AD25" sqref="AD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" outlineLevelRow="2" x14ac:dyDescent="0.2"/>
@@ -2531,15 +2536,15 @@
     <col min="28" max="16384" width="10.5" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="12.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" ht="12.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="12.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" ht="12.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:27" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -2614,7 +2619,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
@@ -2657,7 +2662,7 @@
       <c r="Z4" s="12"/>
       <c r="AA4" s="11"/>
     </row>
-    <row r="5" spans="1:27" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -2739,7 +2744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>11</v>
       </c>
@@ -2803,15 +2808,19 @@
         <f>VLOOKUP(A6,[1]TDSheet!$A:$W,23,0)</f>
         <v>12</v>
       </c>
-      <c r="X6" s="20">
+      <c r="X6" s="28">
         <v>44</v>
       </c>
       <c r="Y6" s="3">
         <f>X6*W6*H6</f>
         <v>158.4</v>
       </c>
+      <c r="AB6" s="3">
+        <f>X6</f>
+        <v>44</v>
+      </c>
     </row>
-    <row r="7" spans="1:27" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>12</v>
       </c>
@@ -2876,15 +2885,19 @@
         <f>VLOOKUP(A7,[1]TDSheet!$A:$W,23,0)</f>
         <v>12</v>
       </c>
-      <c r="X7" s="20">
+      <c r="X7" s="28">
         <v>51</v>
       </c>
       <c r="Y7" s="3">
         <f t="shared" ref="Y7:Y38" si="6">X7*W7*H7</f>
         <v>183.6</v>
       </c>
+      <c r="AB7" s="3">
+        <f t="shared" ref="AB7:AB35" si="7">X7</f>
+        <v>51</v>
+      </c>
     </row>
-    <row r="8" spans="1:27" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A8" s="22" t="s">
         <v>55</v>
       </c>
@@ -2944,7 +2957,7 @@
         <v>100.80000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:27" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>13</v>
       </c>
@@ -2999,7 +3012,7 @@
         <v>3.7</v>
       </c>
       <c r="X9" s="20">
-        <f t="shared" ref="X7:X36" si="7">N9/W9</f>
+        <f t="shared" ref="X9:X30" si="8">N9/W9</f>
         <v>0</v>
       </c>
       <c r="Y9" s="3">
@@ -3007,7 +3020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:27" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>15</v>
       </c>
@@ -3036,7 +3049,7 @@
         <v>55.4</v>
       </c>
       <c r="N10" s="25">
-        <f t="shared" ref="N10:N35" si="8">13*M10-G10</f>
+        <f t="shared" ref="N10:N35" si="9">13*M10-G10</f>
         <v>204.19999999999993</v>
       </c>
       <c r="O10" s="24"/>
@@ -3068,15 +3081,19 @@
         <f>VLOOKUP(A10,[1]TDSheet!$A:$W,23,0)</f>
         <v>12</v>
       </c>
-      <c r="X10" s="20">
+      <c r="X10" s="28">
         <v>17</v>
       </c>
       <c r="Y10" s="3">
         <f t="shared" si="6"/>
         <v>51</v>
       </c>
+      <c r="AB10" s="3">
+        <f t="shared" si="7"/>
+        <v>17</v>
+      </c>
     </row>
-    <row r="11" spans="1:27" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>16</v>
       </c>
@@ -3135,7 +3152,7 @@
         <v>1.8</v>
       </c>
       <c r="X11" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y11" s="3">
@@ -3143,7 +3160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:27" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:28" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>17</v>
       </c>
@@ -3202,7 +3219,7 @@
         <v>3.7</v>
       </c>
       <c r="X12" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y12" s="3">
@@ -3210,7 +3227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:27" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>18</v>
       </c>
@@ -3239,7 +3256,7 @@
         <v>57.4</v>
       </c>
       <c r="N13" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>430.19999999999993</v>
       </c>
       <c r="O13" s="24"/>
@@ -3271,15 +3288,19 @@
         <f>VLOOKUP(A13,[1]TDSheet!$A:$W,23,0)</f>
         <v>12</v>
       </c>
-      <c r="X13" s="20">
+      <c r="X13" s="28">
         <v>36</v>
       </c>
       <c r="Y13" s="3">
         <f t="shared" si="6"/>
         <v>108</v>
       </c>
+      <c r="AB13" s="3">
+        <f t="shared" si="7"/>
+        <v>36</v>
+      </c>
     </row>
-    <row r="14" spans="1:27" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:28" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>19</v>
       </c>
@@ -3341,15 +3362,19 @@
         <f>VLOOKUP(A14,[1]TDSheet!$A:$W,23,0)</f>
         <v>6</v>
       </c>
-      <c r="X14" s="20">
+      <c r="X14" s="28">
         <v>54</v>
       </c>
       <c r="Y14" s="3">
         <f t="shared" si="6"/>
         <v>81</v>
       </c>
+      <c r="AB14" s="3">
+        <f t="shared" si="7"/>
+        <v>54</v>
+      </c>
     </row>
-    <row r="15" spans="1:27" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>20</v>
       </c>
@@ -3410,15 +3435,19 @@
         <f>VLOOKUP(A15,[1]TDSheet!$A:$W,23,0)</f>
         <v>12</v>
       </c>
-      <c r="X15" s="20">
+      <c r="X15" s="28">
         <v>43</v>
       </c>
       <c r="Y15" s="3">
         <f t="shared" si="6"/>
         <v>129</v>
       </c>
+      <c r="AB15" s="3">
+        <f t="shared" si="7"/>
+        <v>43</v>
+      </c>
     </row>
-    <row r="16" spans="1:27" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>21</v>
       </c>
@@ -3477,7 +3506,7 @@
         <v>6</v>
       </c>
       <c r="X16" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y16" s="3">
@@ -3485,7 +3514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:25" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:28" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>22</v>
       </c>
@@ -3514,7 +3543,7 @@
         <v>21.4</v>
       </c>
       <c r="N17" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>111.19999999999999</v>
       </c>
       <c r="O17" s="24"/>
@@ -3546,15 +3575,19 @@
         <f>VLOOKUP(A17,[1]TDSheet!$A:$W,23,0)</f>
         <v>8</v>
       </c>
-      <c r="X17" s="20">
+      <c r="X17" s="28">
         <v>14</v>
       </c>
       <c r="Y17" s="3">
         <f t="shared" si="6"/>
         <v>84</v>
       </c>
+      <c r="AB17" s="3">
+        <f t="shared" si="7"/>
+        <v>14</v>
+      </c>
     </row>
-    <row r="18" spans="1:25" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:28" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>23</v>
       </c>
@@ -3617,15 +3650,19 @@
         <f>VLOOKUP(A18,[1]TDSheet!$A:$W,23,0)</f>
         <v>8</v>
       </c>
-      <c r="X18" s="20">
+      <c r="X18" s="28">
         <v>63</v>
       </c>
       <c r="Y18" s="3">
         <f t="shared" si="6"/>
         <v>453.6</v>
       </c>
+      <c r="AB18" s="3">
+        <f t="shared" si="7"/>
+        <v>63</v>
+      </c>
     </row>
-    <row r="19" spans="1:25" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:28" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>24</v>
       </c>
@@ -3688,15 +3725,19 @@
         <f>VLOOKUP(A19,[1]TDSheet!$A:$W,23,0)</f>
         <v>8</v>
       </c>
-      <c r="X19" s="20">
+      <c r="X19" s="28">
         <v>50</v>
       </c>
       <c r="Y19" s="3">
         <f t="shared" si="6"/>
         <v>360</v>
       </c>
+      <c r="AB19" s="3">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
     </row>
-    <row r="20" spans="1:25" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:28" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>25</v>
       </c>
@@ -3755,15 +3796,19 @@
         <f>VLOOKUP(A20,[1]TDSheet!$A:$W,23,0)</f>
         <v>16</v>
       </c>
-      <c r="X20" s="20">
+      <c r="X20" s="28">
         <v>10</v>
       </c>
       <c r="Y20" s="3">
         <f t="shared" si="6"/>
         <v>68.8</v>
       </c>
+      <c r="AB20" s="3">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
     </row>
-    <row r="21" spans="1:25" ht="21.95" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:28" ht="21.95" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>26</v>
       </c>
@@ -3823,15 +3868,19 @@
         <f>VLOOKUP(A21,[1]TDSheet!$A:$W,23,0)</f>
         <v>5</v>
       </c>
-      <c r="X21" s="20">
+      <c r="X21" s="28">
         <v>260</v>
       </c>
       <c r="Y21" s="3">
         <f t="shared" si="6"/>
         <v>1300</v>
       </c>
+      <c r="AB21" s="3">
+        <f t="shared" si="7"/>
+        <v>260</v>
+      </c>
     </row>
-    <row r="22" spans="1:25" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:28" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>27</v>
       </c>
@@ -3895,15 +3944,19 @@
         <f>VLOOKUP(A22,[1]TDSheet!$A:$W,23,0)</f>
         <v>8</v>
       </c>
-      <c r="X22" s="20">
+      <c r="X22" s="28">
         <v>175</v>
       </c>
       <c r="Y22" s="3">
         <f t="shared" si="6"/>
         <v>1260</v>
       </c>
+      <c r="AB22" s="3">
+        <f t="shared" si="7"/>
+        <v>175</v>
+      </c>
     </row>
-    <row r="23" spans="1:25" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:28" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>28</v>
       </c>
@@ -3962,15 +4015,19 @@
         <f>VLOOKUP(A23,[1]TDSheet!$A:$W,23,0)</f>
         <v>16</v>
       </c>
-      <c r="X23" s="20">
+      <c r="X23" s="28">
         <v>14</v>
       </c>
       <c r="Y23" s="3">
         <f t="shared" si="6"/>
         <v>96.32</v>
       </c>
+      <c r="AB23" s="3">
+        <f t="shared" si="7"/>
+        <v>14</v>
+      </c>
     </row>
-    <row r="24" spans="1:25" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:28" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
         <v>29</v>
       </c>
@@ -4032,15 +4089,19 @@
         <f>VLOOKUP(A24,[1]TDSheet!$A:$W,23,0)</f>
         <v>8</v>
       </c>
-      <c r="X24" s="20">
+      <c r="X24" s="28">
         <v>29</v>
       </c>
       <c r="Y24" s="3">
         <f t="shared" si="6"/>
         <v>162.39999999999998</v>
       </c>
+      <c r="AB24" s="3">
+        <f t="shared" si="7"/>
+        <v>29</v>
+      </c>
     </row>
-    <row r="25" spans="1:25" ht="21.95" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:28" ht="21.95" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>30</v>
       </c>
@@ -4096,15 +4157,19 @@
         <f>VLOOKUP(A25,[1]TDSheet!$A:$W,23,0)</f>
         <v>8</v>
       </c>
-      <c r="X25" s="20">
+      <c r="X25" s="28">
         <v>15</v>
       </c>
       <c r="Y25" s="3">
         <f t="shared" si="6"/>
         <v>108</v>
       </c>
+      <c r="AB25" s="3">
+        <f t="shared" si="7"/>
+        <v>15</v>
+      </c>
     </row>
-    <row r="26" spans="1:25" ht="21.95" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:28" ht="21.95" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
         <v>31</v>
       </c>
@@ -4166,7 +4231,7 @@
         <v>8</v>
       </c>
       <c r="X26" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y26" s="3">
@@ -4174,7 +4239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:25" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:28" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
         <v>32</v>
       </c>
@@ -4234,15 +4299,19 @@
         <f>VLOOKUP(A27,[1]TDSheet!$A:$W,23,0)</f>
         <v>5</v>
       </c>
-      <c r="X27" s="20">
+      <c r="X27" s="28">
         <v>220</v>
       </c>
       <c r="Y27" s="3">
         <f t="shared" si="6"/>
         <v>1100</v>
       </c>
+      <c r="AB27" s="3">
+        <f t="shared" si="7"/>
+        <v>220</v>
+      </c>
     </row>
-    <row r="28" spans="1:25" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:28" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
         <v>33</v>
       </c>
@@ -4299,7 +4368,7 @@
         <v>5</v>
       </c>
       <c r="X28" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y28" s="3">
@@ -4307,7 +4376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:25" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:28" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A29" s="22" t="s">
         <v>56</v>
       </c>
@@ -4359,15 +4428,19 @@
         <f>VLOOKUP(A29,[1]TDSheet!$A:$W,23,0)</f>
         <v>5.5</v>
       </c>
-      <c r="X29" s="20">
+      <c r="X29" s="28">
         <v>46</v>
       </c>
       <c r="Y29" s="3">
         <f t="shared" si="6"/>
         <v>253</v>
       </c>
+      <c r="AB29" s="3">
+        <f t="shared" si="7"/>
+        <v>46</v>
+      </c>
     </row>
-    <row r="30" spans="1:25" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:28" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
         <v>34</v>
       </c>
@@ -4422,7 +4495,7 @@
         <v>6</v>
       </c>
       <c r="X30" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y30" s="3">
@@ -4430,7 +4503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:25" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:28" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A31" s="22" t="s">
         <v>57</v>
       </c>
@@ -4490,7 +4563,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="32" spans="1:25" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:28" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
         <v>35</v>
       </c>
@@ -4519,7 +4592,7 @@
         <v>54</v>
       </c>
       <c r="N32" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>150</v>
       </c>
       <c r="O32" s="24"/>
@@ -4551,15 +4624,19 @@
         <f>VLOOKUP(A32,[1]TDSheet!$A:$W,23,0)</f>
         <v>12</v>
       </c>
-      <c r="X32" s="20">
+      <c r="X32" s="28">
         <v>13</v>
       </c>
       <c r="Y32" s="3">
         <f t="shared" si="6"/>
         <v>39</v>
       </c>
+      <c r="AB32" s="3">
+        <f t="shared" si="7"/>
+        <v>13</v>
+      </c>
     </row>
-    <row r="33" spans="1:25" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:28" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
         <v>36</v>
       </c>
@@ -4613,15 +4690,19 @@
         <f>VLOOKUP(A33,[1]TDSheet!$A:$W,23,0)</f>
         <v>1.8</v>
       </c>
-      <c r="X33" s="20">
+      <c r="X33" s="28">
         <v>28</v>
       </c>
       <c r="Y33" s="3">
         <f t="shared" si="6"/>
         <v>50.4</v>
       </c>
+      <c r="AB33" s="3">
+        <f t="shared" si="7"/>
+        <v>28</v>
+      </c>
     </row>
-    <row r="34" spans="1:25" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:28" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
         <v>37</v>
       </c>
@@ -4653,7 +4734,7 @@
         <v>71.8</v>
       </c>
       <c r="N34" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>397.4</v>
       </c>
       <c r="O34" s="24"/>
@@ -4685,15 +4766,19 @@
         <f>VLOOKUP(A34,[1]TDSheet!$A:$W,23,0)</f>
         <v>12</v>
       </c>
-      <c r="X34" s="20">
+      <c r="X34" s="28">
         <v>33</v>
       </c>
       <c r="Y34" s="3">
         <f t="shared" si="6"/>
         <v>99</v>
       </c>
+      <c r="AB34" s="3">
+        <f t="shared" si="7"/>
+        <v>33</v>
+      </c>
     </row>
-    <row r="35" spans="1:25" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:28" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
         <v>38</v>
       </c>
@@ -4725,7 +4810,7 @@
         <v>79.400000000000006</v>
       </c>
       <c r="N35" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>501.20000000000005</v>
       </c>
       <c r="O35" s="24"/>
@@ -4757,15 +4842,19 @@
         <f>VLOOKUP(A35,[1]TDSheet!$A:$W,23,0)</f>
         <v>12</v>
       </c>
-      <c r="X35" s="20">
+      <c r="X35" s="28">
         <v>42</v>
       </c>
       <c r="Y35" s="3">
         <f t="shared" si="6"/>
         <v>126</v>
       </c>
+      <c r="AB35" s="3">
+        <f t="shared" si="7"/>
+        <v>42</v>
+      </c>
     </row>
-    <row r="36" spans="1:25" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:28" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A36" s="22" t="s">
         <v>58</v>
       </c>
@@ -4825,7 +4914,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="37" spans="1:25" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:28" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A37" s="23" t="s">
         <v>8</v>
       </c>
@@ -4884,7 +4973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:25" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:28" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A38" s="23" t="s">
         <v>10</v>
       </c>
